--- a/Data/EC/NIT-9005239762.xlsx
+++ b/Data/EC/NIT-9005239762.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D605C4F-DB61-4CE1-A92D-19B236B1E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D551BF2-0003-46D2-A7A3-D0830A370D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3574BDA2-340D-466F-9BF6-68B98AD7F850}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CB06BD7-6898-4EAC-9EBD-574AF01AB70B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,18 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73090118</t>
+  </si>
+  <si>
+    <t>JAIME ALFONSO ARGUELLO NIEBLES</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
     <t>79329212</t>
   </si>
   <si>
@@ -74,27 +86,18 @@
     <t>1702</t>
   </si>
   <si>
+    <t>1050944522</t>
+  </si>
+  <si>
+    <t>ROQUE JOSE SIMANCA VASQUEZ</t>
+  </si>
+  <si>
     <t>1047370213</t>
   </si>
   <si>
     <t>MARY CARMEN HERNANDEZ MUÑOZ</t>
   </si>
   <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>73090118</t>
-  </si>
-  <si>
-    <t>JAIME ALFONSO ARGUELLO NIEBLES</t>
-  </si>
-  <si>
-    <t>1050944522</t>
-  </si>
-  <si>
-    <t>ROQUE JOSE SIMANCA VASQUEZ</t>
-  </si>
-  <si>
     <t>14701504</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
   </si>
   <si>
     <t>LEIDY KAREN JARAMILLO CASTRO</t>
-  </si>
-  <si>
-    <t>1704</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96F2E72-EE41-6E35-F4ED-749BBBB5A448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A13375-8117-9CDC-8391-C3BC47F6372B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1733F2E-9066-4A29-92FE-2DBA69DD775C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A955C7C-4E53-4E55-AC22-4FA41B8C5C65}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>8000</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1064,19 +1064,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>48000</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1200000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1087,19 +1087,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>8000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1110,13 +1110,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>92000</v>
@@ -1133,19 +1133,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" s="18">
-        <v>80000</v>
+        <v>92000</v>
       </c>
       <c r="G20" s="18">
-        <v>2000000</v>
+        <v>2300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1156,13 +1156,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E21" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
         <v>8000</v>
@@ -1179,19 +1179,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1202,19 +1202,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1225,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1248,19 +1248,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F25" s="18">
-        <v>32000</v>
+        <v>80000</v>
       </c>
       <c r="G25" s="18">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1271,19 +1271,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1294,19 +1294,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F27" s="24">
-        <v>92000</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="24">
-        <v>2300000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>

--- a/Data/EC/NIT-9005239762.xlsx
+++ b/Data/EC/NIT-9005239762.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D551BF2-0003-46D2-A7A3-D0830A370D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F588671-1ADB-43DA-9EA2-DE7818E3E7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CB06BD7-6898-4EAC-9EBD-574AF01AB70B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3776FC1F-704A-467C-9FFB-9A09419BC9DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,49 +65,49 @@
     <t>CC</t>
   </si>
   <si>
+    <t>79329212</t>
+  </si>
+  <si>
+    <t>WILLIAM ROJAS SANCHEZ</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
     <t>73090118</t>
   </si>
   <si>
     <t>JAIME ALFONSO ARGUELLO NIEBLES</t>
   </si>
   <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1050944522</t>
+  </si>
+  <si>
+    <t>ROQUE JOSE SIMANCA VASQUEZ</t>
+  </si>
+  <si>
+    <t>1047370213</t>
+  </si>
+  <si>
+    <t>MARY CARMEN HERNANDEZ MUÑOZ</t>
+  </si>
+  <si>
+    <t>14701504</t>
+  </si>
+  <si>
+    <t>JHON CARLOS TREJOS LOZADA</t>
+  </si>
+  <si>
+    <t>55313486</t>
+  </si>
+  <si>
+    <t>LEIDY KAREN JARAMILLO CASTRO</t>
+  </si>
+  <si>
     <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>79329212</t>
-  </si>
-  <si>
-    <t>WILLIAM ROJAS SANCHEZ</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1050944522</t>
-  </si>
-  <si>
-    <t>ROQUE JOSE SIMANCA VASQUEZ</t>
-  </si>
-  <si>
-    <t>1047370213</t>
-  </si>
-  <si>
-    <t>MARY CARMEN HERNANDEZ MUÑOZ</t>
-  </si>
-  <si>
-    <t>14701504</t>
-  </si>
-  <si>
-    <t>JHON CARLOS TREJOS LOZADA</t>
-  </si>
-  <si>
-    <t>55313486</t>
-  </si>
-  <si>
-    <t>LEIDY KAREN JARAMILLO CASTRO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A13375-8117-9CDC-8391-C3BC47F6372B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02791122-285A-24F0-116C-7A192A6E8544}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A955C7C-4E53-4E55-AC22-4FA41B8C5C65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE82D6B-B19B-4631-BBE9-2420635F2F9B}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>8000</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1064,13 +1064,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1087,19 +1087,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>8000</v>
+        <v>92000</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1110,19 +1110,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>92000</v>
+        <v>8000</v>
       </c>
       <c r="G19" s="18">
-        <v>2300000</v>
+        <v>2500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1133,19 +1133,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>92000</v>
+        <v>48000</v>
       </c>
       <c r="G20" s="18">
-        <v>2300000</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1156,19 +1156,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
-        <v>8000</v>
+        <v>80000</v>
       </c>
       <c r="G21" s="18">
-        <v>2300000</v>
+        <v>2000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1179,19 +1179,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" s="18">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1202,19 +1202,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>48000</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1200000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1225,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>80000</v>
+        <v>92000</v>
       </c>
       <c r="G24" s="18">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1248,19 +1248,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>80000</v>
+        <v>32000</v>
       </c>
       <c r="G25" s="18">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1271,19 +1271,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1294,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>12</v>
       </c>
       <c r="F27" s="24">
         <v>40000</v>
